--- a/ky/downloads/data-excel/2.1.1.1e.xlsx
+++ b/ky/downloads/data-excel/2.1.1.1e.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -554,11 +554,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -566,7 +564,7 @@
     <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -586,7 +584,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -606,7 +604,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -623,8 +621,9 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -673,8 +672,11 @@
       <c r="P4" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -723,8 +725,11 @@
       <c r="P5" s="10">
         <v>76.508972267536706</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="Q5" s="10">
+        <v>74.605426356589135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -773,8 +778,11 @@
       <c r="P6" s="10">
         <v>110.15000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="10">
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -823,8 +831,11 @@
       <c r="P7" s="10">
         <v>66.630136986301366</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="10">
+        <v>71.61643835616438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -873,8 +884,11 @@
       <c r="P8" s="10">
         <v>102.34375</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="10">
+        <v>95.703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P9" s="10">
         <v>187.29463307776561</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="10">
+        <v>113.91018619934282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -973,8 +990,11 @@
       <c r="P10" s="10">
         <v>107.20081135902637</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="10">
+        <v>108.21501014198785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -1023,8 +1043,11 @@
       <c r="P11" s="10">
         <v>155.38057742782152</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="10">
+        <v>165.26684164479443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1073,8 +1096,11 @@
       <c r="P12" s="10">
         <v>36.054971705739689</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="10">
+        <v>48.504446240905416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1123,8 +1149,11 @@
       <c r="P13" s="10">
         <v>106.76765208893232</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="10">
+        <v>97.361348644026393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1172,6 +1201,9 @@
       </c>
       <c r="P14" s="12">
         <v>32.967032967032964</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>52.747252747252752</v>
       </c>
     </row>
   </sheetData>
